--- a/2_metal_balance/data/2-4数据格式(精炼厂) new.xlsx
+++ b/2_metal_balance/data/2-4数据格式(精炼厂) new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17910" windowHeight="8370"/>
+    <workbookView windowWidth="17910" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>物料分类</t>
   </si>
@@ -221,10 +221,19 @@
     <t>std</t>
   </si>
   <si>
+    <t>直观估计或卷尺（大规模）</t>
+  </si>
+  <si>
     <t>走帐</t>
   </si>
   <si>
-    <t>其他</t>
+    <t>干量无误差</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>白烟尘盘点</t>
   </si>
   <si>
     <t>Cu元素含量误差(无)</t>
@@ -234,6 +243,15 @@
   </si>
   <si>
     <t>Au元素含量误差(无)</t>
+  </si>
+  <si>
+    <t>Cu元素含量有误差</t>
+  </si>
+  <si>
+    <t>Ag元素含量有误差</t>
+  </si>
+  <si>
+    <t>Au元素含量有误差</t>
   </si>
 </sst>
 </file>
@@ -241,11 +259,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -256,6 +274,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -301,13 +326,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -339,7 +357,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -352,6 +399,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -360,6 +461,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -367,109 +488,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -492,43 +510,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,127 +678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,17 +751,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,45 +807,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -812,159 +815,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -980,102 +998,99 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 21" xfId="1"/>
+    <cellStyle name="常规 10 10 2 2 2 3" xfId="2"/>
     <cellStyle name="常规 19" xfId="3"/>
-    <cellStyle name="常规 10 10 2 2 2 3" xfId="4"/>
-    <cellStyle name="常规 21" xfId="5"/>
+    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="Normal" xfId="5"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="6" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="7" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
@@ -1422,1004 +1437,996 @@
   <sheetPr/>
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T$1:W$1048576"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="2" width="10.3636363636364" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.6363636363636" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.3636363636364" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.6363636363636" style="4" customWidth="1"/>
-    <col min="6" max="7" width="21.9090909090909" style="4" customWidth="1"/>
-    <col min="8" max="8" width="24.1818181818182" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.3636363636364" style="4" customWidth="1"/>
-    <col min="10" max="11" width="28.6363636363636" style="4" customWidth="1"/>
-    <col min="12" max="12" width="17.3636363636364" style="4" customWidth="1"/>
-    <col min="13" max="13" width="26.3636363636364" style="6" customWidth="1"/>
-    <col min="14" max="14" width="19.6363636363636" style="4" customWidth="1"/>
-    <col min="15" max="16" width="21.9090909090909" style="4" customWidth="1"/>
-    <col min="17" max="17" width="28.6363636363636" style="4" customWidth="1"/>
-    <col min="18" max="19" width="30.9090909090909" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="10.3636363636364" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.6363636363636" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.3636363636364" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.6363636363636" style="5" customWidth="1"/>
+    <col min="6" max="7" width="21.9090909090909" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.1818181818182" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.3636363636364" style="5" customWidth="1"/>
+    <col min="10" max="11" width="28.6363636363636" style="5" customWidth="1"/>
+    <col min="12" max="12" width="17.3636363636364" style="5" customWidth="1"/>
+    <col min="13" max="13" width="26.3636363636364" style="7" customWidth="1"/>
+    <col min="14" max="14" width="19.6363636363636" style="5" customWidth="1"/>
+    <col min="15" max="16" width="21.9090909090909" style="5" customWidth="1"/>
+    <col min="17" max="17" width="28.6363636363636" style="5" customWidth="1"/>
+    <col min="18" max="19" width="30.9090909090909" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="1:19">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:19">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="4" customFormat="1" spans="1:19">
+      <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>251.6</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="16">
         <v>99.47</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="16">
         <v>370.06</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="16">
         <v>8.61</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="10">
         <v>29479.4</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="16">
         <v>99.47</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="16">
         <v>370.06</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="16">
         <v>8.61</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="10">
         <v>390.8</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="16">
         <v>99.47</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="16">
         <v>370.06</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="16">
         <v>8.61</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:19">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:19">
+      <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>3511.18</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>99.47</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>371.98</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>8.67</v>
       </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
         <v>99.47</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <v>371.98</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="11">
         <v>8.67</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="10">
         <v>4786.73</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="11">
         <v>99.47</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="11">
         <v>371.98</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="11">
         <v>8.67</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:19">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="5" customFormat="1" spans="1:19">
+      <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="13">
         <v>5248.4</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>99.47</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>371.98</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>8.67</v>
       </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
         <v>99.47</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="11">
         <v>371.98</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="11">
         <v>8.67</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="10">
         <v>4750.74</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="11">
         <v>99.47</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="11">
         <v>371.98</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="11">
         <v>8.67</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:19">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="5" customFormat="1" spans="1:19">
+      <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>23.52</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>13.84</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>59040.01</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="19">
         <v>1580.02</v>
       </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
         <v>13.84</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="11">
         <v>59040.01</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="19">
         <v>1580.02</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="10">
         <v>23.02</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="11">
         <v>13.84</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="11">
         <v>59040.01</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="19">
         <v>1580.02</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="28" t="s">
+      <c r="R5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="28" t="s">
+      <c r="S5" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:19">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="5" customFormat="1" spans="1:19">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>21.41</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>14.29</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>64140</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="19">
         <v>1860</v>
       </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
         <v>14.29</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="11">
         <v>64140</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="19">
         <v>1860</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="10">
         <v>24</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="11">
         <v>14.29</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="11">
         <v>64140</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="19">
         <v>1860</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="R6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="28" t="s">
+      <c r="S6" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:19">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="5" customFormat="1" spans="1:19">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>1882.61</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>100</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <v>5.52</v>
       </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
         <v>100</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="11">
         <v>5.52</v>
       </c>
-      <c r="K7" s="18">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
         <v>2790.79</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="11">
         <v>100</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="11">
         <v>5.52</v>
       </c>
-      <c r="P7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8" t="s">
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="28" t="s">
+      <c r="R7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="28" t="s">
+      <c r="S7" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:19">
-      <c r="A8" s="8" t="s">
+    <row r="8" s="5" customFormat="1" spans="1:19">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>8270</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>48.75</v>
       </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
         <v>48.75</v>
       </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
         <v>8450</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="11">
         <v>48.75</v>
       </c>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8" t="s">
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="R8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="28" t="s">
+      <c r="S8" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" spans="1:19">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="5" customFormat="1" spans="1:19">
+      <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>88.23</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>100</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <v>5.53</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="G9" s="11"/>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
         <v>100</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="11">
         <v>5.53</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="9">
+      <c r="K9" s="11"/>
+      <c r="L9" s="10">
         <v>52.456</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="11">
         <v>100</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="11">
         <v>5.53</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="8" t="s">
+      <c r="P9" s="11"/>
+      <c r="Q9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="28" t="s">
+      <c r="R9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="28" t="s">
+      <c r="S9" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:19">
-      <c r="A10" s="8" t="s">
+    <row r="10" s="5" customFormat="1" spans="1:19">
+      <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="16">
         <v>135.4</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>99.47</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="16">
         <v>371.98</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="20">
         <v>8.67</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="16">
         <v>-3656.48</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="11">
         <v>99.47</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="16">
         <v>371.98</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="20">
         <v>8.67</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="11">
         <v>506.2</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="11">
         <v>99.47</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="16">
         <v>371.98</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="20">
         <v>8.67</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="28" t="s">
+      <c r="R10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="28" t="s">
+      <c r="S10" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:19">
-      <c r="A11" s="8" t="s">
+    <row r="11" s="5" customFormat="1" spans="1:19">
+      <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
         <v>100</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="15">
+      <c r="F11" s="16"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="16">
         <v>-13.8</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="11">
         <v>100</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="26" t="s">
+      <c r="J11" s="16"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="11">
         <v>100</v>
       </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="8" t="s">
+      <c r="O11" s="16"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="28" t="s">
+      <c r="R11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="28" t="s">
+      <c r="S11" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>422.9</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="16">
         <v>14.9</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="16">
         <v>49564.78</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="16">
         <v>1438.54</v>
       </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
         <v>14.9</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="16">
         <v>49564.78</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="16">
         <v>1438.54</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="11">
         <v>547.63</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="16">
         <v>14.9</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="16">
         <v>49564.78</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="16">
         <v>1438.54</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="28" t="s">
+      <c r="R12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S12" s="28" t="s">
+      <c r="S12" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
         <v>99.97</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="20">
         <v>5.64</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="15">
+      <c r="G13" s="20"/>
+      <c r="H13" s="16">
         <v>-26.74</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="16">
         <v>99.97</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="20">
         <v>5.64</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="10">
+      <c r="K13" s="20"/>
+      <c r="L13" s="11">
         <v>2.16</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="16">
         <v>99.97</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="20">
         <v>5.64</v>
       </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="8" t="s">
+      <c r="P13" s="20"/>
+      <c r="Q13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="28" t="s">
+      <c r="R13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="28" t="s">
+      <c r="S13" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
         <v>100</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="20">
         <v>5.52</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="15">
+      <c r="G14" s="20"/>
+      <c r="H14" s="16">
         <v>-35.22</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="16">
         <v>100</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="20">
         <v>5.52</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="26" t="s">
+      <c r="K14" s="20"/>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="16">
         <v>100</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="20">
         <v>5.52</v>
       </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="8" t="s">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R14" s="28" t="s">
+      <c r="R14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="28" t="s">
+      <c r="S14" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="11">
         <v>100</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="11">
         <v>5.52</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="10">
+      <c r="G15" s="21"/>
+      <c r="H15" s="11">
         <v>-22749.4316</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="11">
         <v>100</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="11">
         <v>5.52</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="22">
+      <c r="K15" s="21"/>
+      <c r="L15" s="23">
         <v>3412.6304</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="11">
         <v>100</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="11">
         <v>5.52</v>
       </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="8" t="s">
+      <c r="P15" s="21"/>
+      <c r="Q15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="28" t="s">
+      <c r="R15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S15" s="28" t="s">
+      <c r="S15" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>99.99</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>0.27</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="10">
+      <c r="G16" s="21"/>
+      <c r="H16" s="11">
         <v>-296.1666</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="11">
         <v>99.99</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="11">
         <v>0.27</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="22">
+      <c r="K16" s="21"/>
+      <c r="L16" s="23">
         <v>120.2117</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="11">
         <v>99.99</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="11">
         <v>0.27</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="8" t="s">
+      <c r="P16" s="21"/>
+      <c r="Q16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="28" t="s">
+      <c r="R16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S16" s="28" t="s">
+      <c r="S16" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="11">
         <v>99.99</v>
       </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="10">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="11">
         <v>-9.8942</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="11">
         <v>99.99</v>
       </c>
-      <c r="J17" s="10">
-        <v>0</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="21">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22">
         <v>10.7953</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="11">
         <v>99.99</v>
       </c>
-      <c r="O17" s="10">
-        <v>0</v>
-      </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="8" t="s">
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R17" s="28" t="s">
+      <c r="R17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S17" s="28" t="s">
+      <c r="S17" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="9:16">
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-    </row>
     <row r="31" spans="15:15">
-      <c r="O31" s="20"/>
+      <c r="O31" s="21"/>
     </row>
     <row r="32" spans="15:15">
-      <c r="O32" s="20"/>
+      <c r="O32" s="21"/>
     </row>
     <row r="33" spans="15:15">
-      <c r="O33" s="21"/>
+      <c r="O33" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2431,10 +2438,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="3"/>
@@ -2446,185 +2453,233 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="1" ht="25" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1.5</v>
-      </c>
-      <c r="D2">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:4">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
+    </row>
+    <row r="10" customFormat="1" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1">
         <v>0.9</v>
       </c>
-      <c r="C3">
+      <c r="C10" s="1">
         <v>1.1</v>
       </c>
-      <c r="D3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:4">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>0.9</v>
-      </c>
-      <c r="C4">
-        <v>1.1</v>
-      </c>
-      <c r="D4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:4">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>0.95</v>
-      </c>
-      <c r="C5">
-        <v>1.05</v>
-      </c>
-      <c r="D5">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:4">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
+      <c r="D10" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1">
         <v>0.99</v>
       </c>
-      <c r="C6">
+      <c r="C15" s="3">
         <v>1.01</v>
       </c>
-      <c r="D6">
+      <c r="D15" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:4">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:4">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1">
         <v>0.99</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C16" s="3">
         <v>1.01</v>
       </c>
-      <c r="D9">
+      <c r="D16" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:4">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1">
         <v>0.99</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C17" s="3">
         <v>1.01</v>
       </c>
-      <c r="D10">
+      <c r="D17" s="1">
         <v>0.001</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:4">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>0.99</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.01</v>
-      </c>
-      <c r="D11">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:4">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:4">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:4">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
